--- a/data/trans_camb/P16B04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-32,26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,06</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-66,06; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,57; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,04; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,77; -4,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,06%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-66,06; 0,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,57; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,04; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,77; -4,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,28; -10,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; -3,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,71; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,43; -8,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; -3,18</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,79%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,28; -10,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; -3,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,71; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,43; -8,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; -3,18</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-29,8; 0,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 23,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-29,8; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 50,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 31,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,08</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-9,04</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-39,69; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 68,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,25; 21,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,07</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-39,69; 0,0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 222,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 139,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,31; 27,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,02</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-19,23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>-62,79; 6,91</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-33,94; 27,41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,77; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,64; 6,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,53; 11,2</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,39%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,96%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-68,08; 7,66</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 37,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,77; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,58; 7,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,55; 13,08</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,34</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; -1,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 6,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 8,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 8,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 0,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 4,75</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -1,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 7,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 9,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 9,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 5,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,42</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,78</t>
+          <t>0,0; 46,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,52</t>
+          <t>0,0; 40,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,0; 24,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,58</t>
+          <t>0,0; 22,64</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,24</t>
+          <t>0,0; 93,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,08</t>
+          <t>0,0; 66,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,89</t>
+          <t>0,0; 31,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,34</t>
+          <t>0,0; 29,35</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>0,0; 50,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,29</t>
+          <t>0,0; 55,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>0,0; 39,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,75</t>
+          <t>0,0; 35,76</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,33</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 126,72</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 64,37</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 55,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-10,32</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; -1,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 6,58</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 8,15</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 8,29</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-10,93; 0,94</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 4,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-10,8%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-21,1; -1,86</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-7,98; 7,5</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-6,34; 9,04</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-7,99; 9,19</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-11,37; 0,73</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-5,89; 5,04</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Edad-trans_camb.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 0,0</t>
+          <t>-66,78; -9,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 0,0</t>
+          <t>-32,92; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 0,0</t>
+          <t>-38,94; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,77; -4,1</t>
+          <t>-36,11; -4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 0,0</t>
+          <t>-36,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 0,0</t>
+          <t>-66,78; -9,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 0,0</t>
+          <t>-32,92; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 0,0</t>
+          <t>-38,94; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,77; -4,1</t>
+          <t>-36,11; -4,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 0,0</t>
+          <t>-36,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-51,28; -10,35</t>
+          <t>-52,26; -10,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 0,0</t>
+          <t>-34,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,25; -3,42</t>
+          <t>-39,76; -3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 0,0</t>
+          <t>-33,66; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,43; -8,7</t>
+          <t>-34,38; -8,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,42; -3,18</t>
+          <t>-25,98; -3,13</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,28; -10,35</t>
+          <t>-52,26; -10,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 0,0</t>
+          <t>-34,7; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,25; -3,42</t>
+          <t>-39,76; -3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 0,0</t>
+          <t>-33,66; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,43; -8,7</t>
+          <t>-34,38; -8,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; -3,18</t>
+          <t>-25,98; -3,13</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 0,0</t>
+          <t>-29,47; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,36</t>
+          <t>0,0; 40,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,03</t>
+          <t>0,0; 39,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 23,83</t>
+          <t>-5,13; 24,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,42</t>
+          <t>0,0; 25,26</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 0,0</t>
+          <t>-29,47; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,06</t>
+          <t>0,0; 68,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,57</t>
+          <t>0,0; 65,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 31,22</t>
+          <t>-5,15; 31,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,08</t>
+          <t>0,0; 33,8</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 0,0</t>
+          <t>-39,99; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,19</t>
+          <t>0,0; 57,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,23</t>
+          <t>0,0; 59,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 21,59</t>
+          <t>-10,15; 23,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,07</t>
+          <t>0,0; 34,73</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 0,0</t>
+          <t>-39,99; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 222,76</t>
+          <t>0,0; 136,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 139,38</t>
+          <t>0,0; 145,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 27,53</t>
+          <t>-10,27; 30,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,02</t>
+          <t>0,0; 53,21</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 6,91</t>
+          <t>-62,75; 12,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 27,41</t>
+          <t>-32,97; 26,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 0,0</t>
+          <t>-46,79; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 6,54</t>
+          <t>-42,77; 7,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 11,2</t>
+          <t>-23,81; 12,66</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 7,66</t>
+          <t>-72,24; 15,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 37,81</t>
+          <t>-34,77; 37,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 0,0</t>
+          <t>-46,79; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 7,66</t>
+          <t>-43,34; 8,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 13,08</t>
+          <t>-25,35; 14,57</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,69</t>
+          <t>0,0; 48,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,07</t>
+          <t>0,0; 48,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,16</t>
+          <t>0,0; 22,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,64</t>
+          <t>0,0; 22,31</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 93,12</t>
+          <t>0,0; 92,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,91</t>
+          <t>0,0; 93,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,99</t>
+          <t>0,0; 29,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,35</t>
+          <t>0,0; 28,72</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,08</t>
+          <t>0,0; 49,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,45</t>
+          <t>0,0; 48,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,16</t>
+          <t>0,0; 29,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,76</t>
+          <t>0,0; 30,21</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,33</t>
+          <t>0,0; 96,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 126,72</t>
+          <t>0,0; 95,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,37</t>
+          <t>0,0; 40,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,76</t>
+          <t>0,0; 43,29</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>-19,8; -1,8</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>-8,06; 6,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>-6,42; 9,14</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,29</t>
+          <t>-8,8; 6,66</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>-10,66; 0,86</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,75</t>
+          <t>-5,92; 5,31</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,86</t>
+          <t>-20,51; -2,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,5</t>
+          <t>-8,22; 6,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,04</t>
+          <t>-6,57; 10,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 9,19</t>
+          <t>-9,05; 7,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,73</t>
+          <t>-10,89; 0,81</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,04</t>
+          <t>-6,04; 5,83</t>
         </is>
       </c>
     </row>
